--- a/mathTransformed/HMPSTT_(2016-08-04)_34_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-08-04)_34_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -480,6 +485,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S Bijjahalli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S MadbalMagadi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Ramanagar</t>
         </is>
       </c>
@@ -531,6 +546,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Srigiripura Magadi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -558,6 +578,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. High School Arasana KunteMagadi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -582,6 +607,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S Doddamara LavadrKanakapura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -606,6 +636,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S Halasurukanakpura</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -633,6 +668,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S ThigalarahosahalliKanakapura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -657,6 +697,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya KodihalliKanakapura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -684,6 +729,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S BannimukkodluKanakapura</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -708,6 +758,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. High School AlanathaKanakapura</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Ramangara</t>
         </is>
       </c>
@@ -735,6 +790,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S MangalgiHumnabad</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -762,6 +822,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. High School HarkoodBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -789,6 +854,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School MadakattiBhalki</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -816,6 +886,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S DanagapurBhalki</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -840,7 +915,8 @@
           <t>DHANARAJ</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>DHANARA</t>
         </is>
@@ -858,6 +934,11 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>Govt. Girls High SchoolThana KushnvorAurad</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -886,6 +967,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Govt. High SchoolJanatangar HudgiHumnabad</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -913,6 +999,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S LadhaBhalki</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -934,6 +1025,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. Hr. P. S Nealg. Bhalki</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -961,6 +1057,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. High School GourBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -988,6 +1089,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Hallikhed(K) Humnabad</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1009,6 +1115,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. H P S MorambiBhalki</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1030,6 +1141,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High School Manahalli</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1057,6 +1173,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High SchoolBadalgaonAurad</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1084,6 +1205,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Ranjol Kheni</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1105,6 +1231,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G Hr P S BolegaonBhalki</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1132,6 +1263,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Joyti High School KushnoorAurad</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1159,6 +1295,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. High SchoolNagmarpalliAurad</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1180,6 +1321,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G Hr P S MadakattiBhalki</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1201,6 +1347,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Sarvodaya Girl high schoolHumnabad</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1228,6 +1379,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. High School Gadlegaon(B)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Basavakalyan</t>
         </is>
       </c>
@@ -1243,7 +1399,8 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -1269,6 +1426,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. High School Dhannur (K)Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1296,6 +1458,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Gadagi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1323,6 +1490,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High School LakhangaonBhalki</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1349,6 +1521,11 @@
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>G H P S KoudgaonAurad</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-08-04)_34_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-08-04)_34_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramanagar</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramangara</t>
+          <t>Ramanagara</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,6 @@
           <t>DHANARAJ</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>DHANARA</t>
@@ -1384,7 +1383,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Basavakalyan</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1398,6 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>Bidar</t>
